--- a/Data/Output/sjfPreeOutput.xlsx
+++ b/Data/Output/sjfPreeOutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="388">
   <si>
     <t>process</t>
   </si>
@@ -40,52 +40,1144 @@
     <t>P1</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1177</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1196</t>
+  </si>
+  <si>
+    <t>1257</t>
+  </si>
+  <si>
+    <t>1216</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>P36</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>P5</t>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>P41</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>P47</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>P48</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>P51</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>P52</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>1182</t>
+  </si>
+  <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>1217</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>P54</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>P55</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>P56</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>P57</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>P58</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>P59</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>P60</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>P61</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>P62</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>P63</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>P64</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>P65</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>P66</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>P67</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>P68</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>P69</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>P70</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>P71</t>
+  </si>
+  <si>
+    <t>P72</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>P73</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>P74</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>P75</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>P76</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>P77</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>P78</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>P79</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>P80</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>P81</t>
+  </si>
+  <si>
+    <t>973</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>P82</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>P83</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>P84</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>P85</t>
+  </si>
+  <si>
+    <t>P86</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>P87</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>P88</t>
+  </si>
+  <si>
+    <t>P89</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>P91</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>P92</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>P93</t>
+  </si>
+  <si>
+    <t>873</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>P94</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>P95</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>P96</t>
+  </si>
+  <si>
+    <t>871</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>P97</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>P98</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>P99</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>451</t>
   </si>
 </sst>
 </file>
@@ -417,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,99 +1558,2284 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" t="s">
+        <v>222</v>
+      </c>
+      <c r="G51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>225</v>
+      </c>
+      <c r="F52" t="s">
+        <v>226</v>
+      </c>
+      <c r="G52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" t="s">
+        <v>230</v>
+      </c>
+      <c r="G53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" t="s">
+        <v>234</v>
+      </c>
+      <c r="G54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>244</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>245</v>
+      </c>
+      <c r="F57" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" t="s">
+        <v>249</v>
+      </c>
+      <c r="G58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" t="s">
+        <v>253</v>
+      </c>
+      <c r="G59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" t="s">
+        <v>256</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>258</v>
+      </c>
+      <c r="F61" t="s">
+        <v>259</v>
+      </c>
+      <c r="G61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" t="s">
+        <v>263</v>
+      </c>
+      <c r="G62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>253</v>
+      </c>
+      <c r="F63" t="s">
+        <v>266</v>
+      </c>
+      <c r="G63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>267</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64" t="s">
+        <v>269</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>271</v>
+      </c>
+      <c r="F65" t="s">
+        <v>272</v>
+      </c>
+      <c r="G65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" t="s">
+        <v>275</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" t="s">
+        <v>276</v>
+      </c>
+      <c r="G66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>277</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s">
+        <v>278</v>
+      </c>
+      <c r="G67" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G68" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>283</v>
+      </c>
+      <c r="F69" t="s">
+        <v>284</v>
+      </c>
+      <c r="G69" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>287</v>
+      </c>
+      <c r="F70" t="s">
+        <v>288</v>
+      </c>
+      <c r="G70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" t="s">
+        <v>291</v>
+      </c>
+      <c r="G71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>167</v>
+      </c>
+      <c r="F72" t="s">
+        <v>239</v>
+      </c>
+      <c r="G72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>213</v>
+      </c>
+      <c r="F73" t="s">
+        <v>294</v>
+      </c>
+      <c r="G73" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>297</v>
+      </c>
+      <c r="F74" t="s">
+        <v>298</v>
+      </c>
+      <c r="G74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>301</v>
+      </c>
+      <c r="F75" t="s">
+        <v>302</v>
+      </c>
+      <c r="G75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>305</v>
+      </c>
+      <c r="F76" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" t="s">
+        <v>309</v>
+      </c>
+      <c r="G77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>312</v>
+      </c>
+      <c r="F78" t="s">
+        <v>313</v>
+      </c>
+      <c r="G78" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>316</v>
+      </c>
+      <c r="F79" t="s">
+        <v>317</v>
+      </c>
+      <c r="G79" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>285</v>
+      </c>
+      <c r="F80" t="s">
+        <v>320</v>
+      </c>
+      <c r="G80" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>322</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>227</v>
+      </c>
+      <c r="F81" t="s">
+        <v>323</v>
+      </c>
+      <c r="G81" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>325</v>
+      </c>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>326</v>
+      </c>
+      <c r="F82" t="s">
+        <v>185</v>
+      </c>
+      <c r="G82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>329</v>
+      </c>
+      <c r="F83" t="s">
+        <v>330</v>
+      </c>
+      <c r="G83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>332</v>
+      </c>
+      <c r="B84" t="s">
+        <v>333</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>310</v>
+      </c>
+      <c r="F84" t="s">
+        <v>334</v>
+      </c>
+      <c r="G84" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>336</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>337</v>
+      </c>
+      <c r="F85" t="s">
+        <v>237</v>
+      </c>
+      <c r="G85" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>340</v>
+      </c>
+      <c r="B87" t="s">
+        <v>341</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" t="s">
+        <v>342</v>
+      </c>
+      <c r="G87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>343</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>344</v>
+      </c>
+      <c r="F88" t="s">
+        <v>345</v>
+      </c>
+      <c r="G88" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>348</v>
+      </c>
+      <c r="B90" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>349</v>
+      </c>
+      <c r="F90" t="s">
+        <v>350</v>
+      </c>
+      <c r="G90" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" t="s">
+        <v>353</v>
+      </c>
+      <c r="G91" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>354</v>
+      </c>
+      <c r="B92" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>263</v>
+      </c>
+      <c r="F92" t="s">
+        <v>355</v>
+      </c>
+      <c r="G92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>356</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>357</v>
+      </c>
+      <c r="F93" t="s">
+        <v>358</v>
+      </c>
+      <c r="G93" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>360</v>
+      </c>
+      <c r="B94" t="s">
+        <v>342</v>
+      </c>
+      <c r="C94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>361</v>
+      </c>
+      <c r="F94" t="s">
+        <v>362</v>
+      </c>
+      <c r="G94" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>364</v>
+      </c>
+      <c r="B95" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>365</v>
+      </c>
+      <c r="F95" t="s">
+        <v>366</v>
+      </c>
+      <c r="G95" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>368</v>
+      </c>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>369</v>
+      </c>
+      <c r="F96" t="s">
+        <v>370</v>
+      </c>
+      <c r="G96" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>372</v>
+      </c>
+      <c r="B97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>373</v>
+      </c>
+      <c r="F97" t="s">
+        <v>374</v>
+      </c>
+      <c r="G97" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>376</v>
+      </c>
+      <c r="B98" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>375</v>
+      </c>
+      <c r="F98" t="s">
+        <v>377</v>
+      </c>
+      <c r="G98" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>380</v>
+      </c>
+      <c r="F99" t="s">
+        <v>381</v>
+      </c>
+      <c r="G99" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>383</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>283</v>
+      </c>
+      <c r="F100" t="s">
+        <v>384</v>
+      </c>
+      <c r="G100" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>385</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>303</v>
+      </c>
+      <c r="F101" t="s">
+        <v>386</v>
+      </c>
+      <c r="G101" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Output/sjfPreeOutput.xlsx
+++ b/Data/Output/sjfPreeOutput.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="393">
   <si>
     <t>process</t>
   </si>
@@ -1178,6 +1179,21 @@
   </si>
   <si>
     <t>451</t>
+  </si>
+  <si>
+    <t>Total Process</t>
+  </si>
+  <si>
+    <t>AWT (Average Waiting Time)</t>
+  </si>
+  <si>
+    <t>Total Waiting Time</t>
+  </si>
+  <si>
+    <t>ATAT (Average Turn Around Time)</t>
+  </si>
+  <si>
+    <t>Total Turn Around Time</t>
   </si>
 </sst>
 </file>
@@ -3841,4 +3857,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2">
+        <v>476.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3">
+        <v>47613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4">
+        <v>488.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5">
+        <v>48871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>